--- a/Core_API_ReadExcel/Files/Employee.xlsx
+++ b/Core_API_ReadExcel/Files/Employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDemos\Core_API_ReadExcel\Core_API_ReadExcel\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\Core_API_ReadExcel\Core_API_ReadExcel\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B26F83-C5DE-40DD-A4D0-D9C6C23057AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703D60D5-45F9-4658-9B66-EF193879E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9FD83BFE-185E-4715-BA70-B99618417B24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FD83BFE-185E-4715-BA70-B99618417B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>EmpNo</t>
   </si>
@@ -51,6 +49,87 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Basant</t>
+  </si>
+  <si>
+    <t>Baban</t>
+  </si>
+  <si>
+    <t>Chaitanya</t>
+  </si>
+  <si>
+    <t>Chirayu</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Eshwar</t>
+  </si>
+  <si>
+    <t>Eshan</t>
+  </si>
+  <si>
+    <t>Falgun</t>
+  </si>
+  <si>
+    <t>Fanidhar</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Gandadhar</t>
+  </si>
+  <si>
+    <t>Hament</t>
+  </si>
+  <si>
+    <t>Hanuman</t>
+  </si>
+  <si>
+    <t>Ishan</t>
+  </si>
+  <si>
+    <t>Idhant</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Jayram</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Kavish</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
@@ -422,13 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119A90D-8EA1-4CB0-9ACE-20FAC40A1F15}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -447,6 +529,380 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
